--- a/WDD_project_task_list _updated (1).xlsx
+++ b/WDD_project_task_list _updated (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -27,40 +38,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
+    <t>WDD_Project_2025</t>
+  </si>
+  <si>
     <t>Done Y/N?</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Goals for this week</t>
-  </si>
-  <si>
-    <t>week 8</t>
-  </si>
-  <si>
-    <t>read brief &amp; be familiar with it</t>
-  </si>
-  <si>
-    <t>week 9</t>
-  </si>
-  <si>
-    <t>week 10</t>
-  </si>
-  <si>
-    <t>week 11</t>
-  </si>
-  <si>
-    <t>week 12</t>
-  </si>
-  <si>
-    <t>Submission</t>
   </si>
   <si>
     <t>Team 
 Member</t>
   </si>
   <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Goals for this week</t>
+  </si>
+  <si>
+    <t>week 8</t>
+  </si>
+  <si>
+    <t>read brief &amp; be familiar with it</t>
+  </si>
+  <si>
+    <t>brainstorm with group - what sustainability goal to use</t>
+  </si>
+  <si>
     <t>team member strengths and weaknesses</t>
   </si>
   <si>
@@ -70,68 +72,77 @@
     <t>my own wireframe</t>
   </si>
   <si>
+    <t>sitemap for whole website</t>
+  </si>
+  <si>
+    <t>week 9</t>
+  </si>
+  <si>
+    <t>add your tasks and assign them to a team member</t>
+  </si>
+  <si>
+    <t>record who contributed - meeting and coding</t>
+  </si>
+  <si>
+    <t>Let Emer know if someone is out of contact</t>
+  </si>
+  <si>
+    <t>week 10</t>
+  </si>
+  <si>
+    <t>week 11</t>
+  </si>
+  <si>
+    <t>week 12</t>
+  </si>
+  <si>
+    <t>finish up code</t>
+  </si>
+  <si>
+    <t>deploy website</t>
+  </si>
+  <si>
+    <t>testing - functional testing, speed test</t>
+  </si>
+  <si>
+    <t>Write/record report</t>
+  </si>
+  <si>
+    <t>only one CSS file - if possible more marks</t>
+  </si>
+  <si>
+    <t>testing menu links work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments in HTML, CSS and JS </t>
+  </si>
+  <si>
+    <t>Make sure the author name is on each webpage</t>
+  </si>
+  <si>
+    <t>everyone has DOM manipulation on their own webpage</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>SUNDAY</t>
+  </si>
+  <si>
     <t>decide who does this</t>
   </si>
   <si>
-    <t>deploy website</t>
-  </si>
-  <si>
-    <t>testing - functional testing, speed test</t>
-  </si>
-  <si>
-    <t>finish up code</t>
-  </si>
-  <si>
-    <t>Write/record report</t>
-  </si>
-  <si>
-    <t>record who contributed - meeting and coding</t>
-  </si>
-  <si>
-    <t>Let Emer know if someone is out of contact</t>
-  </si>
-  <si>
-    <t>add your tasks and assign them to a team member</t>
-  </si>
-  <si>
-    <t>sitemap for whole website</t>
-  </si>
-  <si>
-    <t>only one CSS file - if possible more marks</t>
-  </si>
-  <si>
-    <t>testing menu links work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments in HTML, CSS and JS </t>
-  </si>
-  <si>
-    <t>Make sure the author name is on each webpage</t>
-  </si>
-  <si>
-    <t>everyone has DOM manipulation on their own webpage</t>
-  </si>
-  <si>
-    <t>WDD_Project_2025</t>
-  </si>
-  <si>
-    <t>brainstorm with group - what sustainability goal to use</t>
-  </si>
-  <si>
-    <t>SUNDAY</t>
+    <t>1- Menomi Gamage</t>
   </si>
   <si>
     <t>2 -Hande Eda Ozdemir</t>
-  </si>
-  <si>
-    <t>1- Menomi Gamage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -247,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -353,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -495,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,7 +520,7 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="23.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="104.140625" style="3" customWidth="1"/>
@@ -518,173 +529,173 @@
     <col min="5" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="46.5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:3">
       <c r="B35" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="B36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="B37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="B38" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="B39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C43" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C44" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -703,58 +714,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DefaultSectionNames xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Invited_Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Owner xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Has_Teacher_Only_SectionGroup xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Invited_Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <CultureName xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Distribution_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <TeamsChannelId xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Math_Settings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <FolderType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Templates xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <AppVersion xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <LMS_Mappings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <NotebookType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009267F4E1BDB0BA4ABFCFBFE514C604C8" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61ddfe86c7f6991e5d8570e77096b500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a400bed3-dd80-47b5-be8a-0e5cea58c044" xmlns:ns3="bf565209-2b21-4ee4-af8d-f3a2c0cda902" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f845289874843908626a75dec0325abb" ns2:_="" ns3:_="">
     <xsd:import namespace="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
@@ -1157,46 +1116,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DefaultSectionNames xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Invited_Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Owner xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Has_Teacher_Only_SectionGroup xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Invited_Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <CultureName xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Distribution_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <TeamsChannelId xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Math_Settings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <FolderType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Templates xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <AppVersion xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <LMS_Mappings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <NotebookType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8144FC7C-9872-4D39-8984-1737A434D946}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8144FC7C-9872-4D39-8984-1737A434D946}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45813AF1-8288-45E9-83B6-FF3A559347C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bf565209-2b21-4ee4-af8d-f3a2c0cda902"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A6CF24-95A3-4D7A-A7CF-B44ADA1363FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A6CF24-95A3-4D7A-A7CF-B44ADA1363FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
-    <ds:schemaRef ds:uri="bf565209-2b21-4ee4-af8d-f3a2c0cda902"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45813AF1-8288-45E9-83B6-FF3A559347C4}"/>
 </file>